--- a/Software/protocol.xlsx
+++ b/Software/protocol.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DDE83B49-DAF7-4523-AF10-7AC5EC1A39D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1D9E4065-20EA-415D-A44E-0EEE4ABFA214}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>通道选择</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -132,6 +132,77 @@
   <si>
     <t>通道0输出正峰值为3.5V
 负峰值为-2.0V，频率为1.1Hz的正弦信号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC to Platform</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0XAA 0XAA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波形选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00：直流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01：正弦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02：PWM波</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高电压
+低电压
+频率
+占空比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留(计数位)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通道：uint8_t</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜率：uint32_t，X100
+截距：uint32_t，X100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>振幅
+频率
+初相
+偏距</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -199,7 +270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -208,6 +279,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -491,22 +568,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="2" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16" style="3" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -516,35 +595,35 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -554,32 +633,33 @@
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -589,20 +669,17 @@
       <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>20</v>
@@ -614,13 +691,128 @@
         <v>20</v>
       </c>
       <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:G7"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
